--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,10 +129,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:CorePacienteCl</t>
-  </si>
-  <si>
-    <t>element:PrestadorCL</t>
+    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl#Patient</t>
+  </si>
+  <si>
+    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl#Practitioner</t>
   </si>
   <si>
     <t>ID</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -696,42 +696,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.76953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,31 +334,32 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t>required</t>
@@ -706,7 +707,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1341,7 +1342,7 @@
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1356,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
@@ -1364,13 +1365,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1392,7 +1393,7 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>9</v>
@@ -1459,7 +1460,7 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>102</v>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,31 +334,32 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t>required</t>
@@ -706,7 +707,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1341,7 +1342,7 @@
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1356,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
@@ -1364,13 +1365,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1392,7 +1393,7 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>9</v>
@@ -1459,7 +1460,7 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>102</v>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,10 +129,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl#Patient</t>
-  </si>
-  <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl#Practitioner</t>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>element:Practitioner</t>
   </si>
   <si>
     <t>ID</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,38 +334,21 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
+    <t xml:space="preserve">CodeableConcept
+</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentidaddeGenero</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentidaddeGenero</t>
   </si>
 </sst>
 </file>
@@ -688,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -697,9 +680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.5859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -707,7 +690,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1293,10 +1276,10 @@
         <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1323,26 +1306,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1360,109 +1343,6 @@
         <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>102</v>
       </c>
     </row>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
